--- a/automation/mrz_patolu/Meta_Patolu.xlsx
+++ b/automation/mrz_patolu/Meta_Patolu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\opendatazurich.github.io\automation\mrz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\sszsim\opendatazurich\opendatazurich.github.io\automation\mrz_patolu\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B5AC1-AFA0-4DDA-BB10-D59BC7605DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="-50" windowWidth="21230" windowHeight="12540"/>
+    <workbookView xWindow="23688" yWindow="1500" windowWidth="21516" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -991,9 +992,6 @@
 </t>
   </si>
   <si>
-    <t>Museum Rietberg Zürich, Präsidialdepartement</t>
-  </si>
-  <si>
     <t>Geografische Bezüge</t>
   </si>
   <si>
@@ -1221,11 +1219,14 @@
   <si>
     <t>23.11.2021</t>
   </si>
+  <si>
+    <t>Museum Rietberg, Präsidialdepartement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1718,11 +1719,11 @@
   <cellStyles count="7">
     <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
-    <cellStyle name="Standard 3" xfId="2"/>
-    <cellStyle name="Standard 4" xfId="3"/>
-    <cellStyle name="Standard 5" xfId="4"/>
-    <cellStyle name="Standard 6" xfId="5"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standard 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standard 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Standard 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1963,10 +1964,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2023,7 +2024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="312" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="325" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
@@ -2104,7 +2105,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
@@ -2122,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
@@ -2174,7 +2175,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="7" t="s">
@@ -2192,7 +2193,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="7" t="s">
@@ -2324,10 +2325,10 @@
         <v>51</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
@@ -2340,10 +2341,10 @@
         <v>51</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="7"/>
@@ -2356,10 +2357,10 @@
         <v>51</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>174</v>
@@ -2371,10 +2372,10 @@
         <v>51</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="7"/>
@@ -2443,13 +2444,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="4" t="s">
@@ -2461,13 +2462,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
@@ -2479,13 +2480,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="4" t="s">
@@ -2497,13 +2498,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E34" s="7"/>
     </row>
@@ -2512,13 +2513,13 @@
         <v>30</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E35" s="7"/>
     </row>
@@ -2527,13 +2528,13 @@
         <v>30</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E36" s="7"/>
     </row>
@@ -2542,13 +2543,13 @@
         <v>30</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E37" s="7"/>
     </row>
@@ -2557,13 +2558,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E38" s="7"/>
     </row>
@@ -2572,13 +2573,13 @@
         <v>30</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E39" s="7"/>
     </row>
@@ -2587,13 +2588,13 @@
         <v>30</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E40" s="7"/>
     </row>
@@ -2602,13 +2603,13 @@
         <v>30</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E41" s="7"/>
     </row>
@@ -2617,13 +2618,13 @@
         <v>30</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E42" s="7"/>
     </row>
@@ -2632,13 +2633,13 @@
         <v>30</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E43" s="7"/>
     </row>
@@ -2647,13 +2648,13 @@
         <v>30</v>
       </c>
       <c r="B44" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="D44" s="22" t="s">
         <v>212</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>213</v>
       </c>
       <c r="E44" s="7"/>
     </row>
@@ -2665,10 +2666,10 @@
         <v>158</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E45" s="7"/>
     </row>
@@ -2778,7 +2779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2916,7 +2917,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1" location="metadata"/>
+    <hyperlink ref="A24" r:id="rId1" location="metadata" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2924,7 +2925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2986,7 +2987,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" location="metadata"/>
+    <hyperlink ref="A11" r:id="rId1" location="metadata" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2994,7 +2995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3132,7 +3133,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" location="metadata"/>
+    <hyperlink ref="A21" r:id="rId1" location="metadata" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3140,7 +3141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3359,8 +3360,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1" location="metadata"/>
-    <hyperlink ref="D14" r:id="rId2"/>
+    <hyperlink ref="A22" r:id="rId1" location="metadata" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -3368,18 +3369,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3497,6 +3498,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3507,14 +3516,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
